--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="24960" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="360" windowWidth="24960" windowHeight="14980" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Each person has their own page as well as a meeting page for universal time</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Meeting with Customer about Requirements</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Duration (hours</t>
+  </si>
+  <si>
+    <t>meeting</t>
   </si>
 </sst>
 </file>
@@ -447,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -535,10 +544,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D1"/>
+  <dimension ref="B1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -552,6 +561,17 @@
       </c>
       <c r="D1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1">
+        <v>42220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -566,23 +586,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D1"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1">
+        <v>42219</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1">
+        <v>42220</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -597,10 +642,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D1"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -614,6 +659,28 @@
       </c>
       <c r="D1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1">
+        <v>42280</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1">
+        <v>42280</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -628,10 +695,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D1"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -645,6 +712,28 @@
       </c>
       <c r="D1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1">
+        <v>42280</v>
+      </c>
+      <c r="C2">
+        <v>2.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1">
+        <v>42281</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -659,10 +748,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D1"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -676,6 +765,28 @@
       </c>
       <c r="D1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1">
+        <v>42280</v>
+      </c>
+      <c r="C2">
+        <v>2.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1">
+        <v>42281</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
